--- a/Resources/Pitanja.xlsx
+++ b/Resources/Pitanja.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\filip\Documents\Visual Studio\Projects\Igre\Ruski rulet\Ruski rulet\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037C08CC-D9FB-4F57-BD61-86D6B77E88E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F0E1F9-591B-40A0-8CDD-979467598AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23676" yWindow="0" windowWidth="17496" windowHeight="24780" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spremna pitanja" sheetId="19" r:id="rId1"/>
     <sheet name="Pitanja u pripremi" sheetId="18" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="1800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3598" uniqueCount="1813">
   <si>
     <t>:)&gt;+</t>
   </si>
@@ -5435,13 +5434,52 @@
   </si>
   <si>
     <t>Улази Пироћанац у кафић и наручује кафу. Окрене се, а иза њега три девојке и он их пита:NEWLINE- Девојке, шта пијете?NEWLINE- Кока-колу.NEWLINE-...?</t>
+  </si>
+  <si>
+    <t>Pa ne znam ni ja nije ga otvorio</t>
+  </si>
+  <si>
+    <t>Sta je dete bez ruku dobilo za novu godinu</t>
+  </si>
+  <si>
+    <t>Koji lijepak duva Deda Mraz?</t>
+  </si>
+  <si>
+    <t>OHO HO!</t>
+  </si>
+  <si>
+    <t>Pokvario se plavuši auto, pa ga odvezla majstoru. Posle pregleda, pita ona majstora:</t>
+  </si>
+  <si>
+    <t>- Šta mu je?</t>
+  </si>
+  <si>
+    <t>Majstor odgovori:</t>
+  </si>
+  <si>
+    <t>- Ma neki kratak spoj.</t>
+  </si>
+  <si>
+    <t>- A možete li da ga produžite?</t>
+  </si>
+  <si>
+    <t>Zamoli Piroćanac komšiju da 31. decembra, negde pred ponoć, dođe pod njegov prozor i da spali iz pištolja jedno tri - četiri metka u vazduh.</t>
+  </si>
+  <si>
+    <t>Kad se približila ponoć, komšija se prišunja prozoru i ispali tri hica u vazduh, a Piroćanac zakuka:</t>
+  </si>
+  <si>
+    <t>- Lele deco, utepaše nam Deda Mraza!</t>
+  </si>
+  <si>
+    <t>Jednim istraživanjem se dokazalo da na Kanarskim ostrvima uopšte nema kanarinaca. U drugom istraživanju utvrđena je slična situacija sa Devičanskim ostrvima. Ni tamo nema kanarinaca!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5469,6 +5507,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF868686"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF050505"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF262626"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5491,7 +5560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5514,6 +5583,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5533,9 +5611,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5573,9 +5651,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5608,26 +5686,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5660,26 +5721,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5853,10 +5897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79E27C1-2539-4411-927C-38BD96FFCA5E}">
-  <dimension ref="A1:G902"/>
+  <dimension ref="A1:G923"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A877" workbookViewId="0">
-      <selection activeCell="C893" sqref="C893"/>
+    <sheetView tabSelected="1" topLeftCell="A868" workbookViewId="0">
+      <selection activeCell="C923" sqref="C923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19284,6 +19328,80 @@
       </c>
       <c r="G902" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C904" s="10" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C905" s="10"/>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C906" s="10" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="C908" s="11" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="C909" s="11" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C911" s="12" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C912" s="12" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="913" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C913" s="12"/>
+    </row>
+    <row r="914" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C914" s="12" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="915" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C915" s="12" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="916" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C916" s="13" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="918" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C918" s="12" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="919" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C919" s="12"/>
+    </row>
+    <row r="920" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C920" s="12" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="921" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C921" s="13" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="923" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C923" s="14" t="s">
+        <v>1812</v>
       </c>
     </row>
   </sheetData>
